--- a/biology/Histoire de la zoologie et de la botanique/Jean_Senebier/Jean_Senebier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Senebier/Jean_Senebier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Senebier (ou Sénebier[1]) (25 mai 1742[2], Genève – 22 juillet 1809, Genève) est un naturaliste et météorologue genevois, auteur de nombreux travaux sur la physiologie végétale, notamment sur l'influence de la lumière sur les végétaux, phénomène aujourd'hui connu sous le  nom de photosynthèse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Senebier (ou Sénebier) (25 mai 1742, Genève – 22 juillet 1809, Genève) est un naturaliste et météorologue genevois, auteur de nombreux travaux sur la physiologie végétale, notamment sur l'influence de la lumière sur les végétaux, phénomène aujourd'hui connu sous le  nom de photosynthèse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie et principaux travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le père de Jean Senebier s'appelait Jean Antoine Senebier ; il était commerçant et, d'après l'acte de baptême, "Citoyen". Sa mère s'appelait Marie Tessier. Il épousa en 1769 Jacqueline de Morsier.
 Après avoir fréquenté l'auditoire de philosophie de l'Académie de Genève, il fit des études de théologie (1761-64) et fut ordonné en 1765. Il fut pasteur de Chancy de 1770 à 1773 et bibliothécaire de Genève de 1773 à 1795 et de 1799 à 1809.
@@ -521,8 +535,6 @@
 Senebier peut être considéré comme le fondateur d'une discipline nouvelle, la physiologie végétale, qu'il définit en 1791 dans le volume « Forêts et Bois » de l'Encyclopédie méthodique comme la science des échanges de substances entre les plantes et leur environnement, qui inclut l'analyse de la composition des substances végétales. Cette science expérimentale, qui s'oppose à l'histoire naturelle descriptive, est basée sur la chimie. Malheureusement pour Senebier, sa lente conversion à la chimie nouvelle, entamée vers 1787, ne fut complète qu'en 1796, ce qui rend plus difficile la lecture de ses œuvres antérieures à cette date.
 De 1782 à 1789, Senebier fut recruté par l'Académie de Mannheim pour effectuer à Genève des relevés systématiques du baromètre, du thermomètre, de l'hygromètre et de la boussole de déclinaison. Sa participation à ce projet fut peut-être motivée par la croyance, qu'il partageait avec d'autres savants de l'époque, en l'influence météorologique des cycles lunaire et solaire, croyance que les relevés effectués ne tardèrent d'ailleurs pas à infirmer.
 Outre Spallanzani, les principaux correspondants étrangers de Senebier étaient des physiciens, des chimistes et des météorologues tels que Marsilio Landriani, Jan Hendrik van Swinden, Alessandro Volta, Jean-Claude de Lamétherie, Antonio Vassalli Eandi, Carlo Luigi Morozzo et Martin van Marum.
-Vie religieuse
-Senebier était aussi pasteur protestant (il fut le premier pasteur de Chancy[3]) et il a laissé des publications religieuses.
 </t>
         </is>
       </c>
@@ -548,12 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Perspective historique</t>
+          <t>Biographie et principaux travaux</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce sont Marcello Malpighi et Stephen Hales qui prouvèrent qu'une partie importante de l'énergie que les plantes tirent de leur environnement provient de l'atmosphère, mais aucun progrès n'avait été accompli depuis leur travaux. Il faudra attendre que Charles Bonnet observe que des feuilles plongées dans de l'eau émettent des bulles de gaz. Joseph Priestley finit par identifier ce gaz comme de l'oxygène. Jan Ingenhousz prouve ensuite la disparition simultanée de l'acide carbonique. C'est Jean Senebier qui prouve le premier clairement que cette activité est limitée aux parties vertes des plantes et seulement quand celles-ci sont exposées au soleil. Il donne pour la première fois une vue complète du processus de nutrition végétale en termes strictement chimiques. Senebier a été aidé dans ses recherches par François Huber.
+          <t>Vie religieuse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senebier était aussi pasteur protestant (il fut le premier pasteur de Chancy) et il a laissé des publications religieuses.
 </t>
         </is>
       </c>
@@ -579,13 +597,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Perspective historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont Marcello Malpighi et Stephen Hales qui prouvèrent qu'une partie importante de l'énergie que les plantes tirent de leur environnement provient de l'atmosphère, mais aucun progrès n'avait été accompli depuis leur travaux. Il faudra attendre que Charles Bonnet observe que des feuilles plongées dans de l'eau émettent des bulles de gaz. Joseph Priestley finit par identifier ce gaz comme de l'oxygène. Jan Ingenhousz prouve ensuite la disparition simultanée de l'acide carbonique. C'est Jean Senebier qui prouve le premier clairement que cette activité est limitée aux parties vertes des plantes et seulement quand celles-ci sont exposées au soleil. Il donne pour la première fois une vue complète du processus de nutrition végétale en termes strictement chimiques. Senebier a été aidé dans ses recherches par François Huber.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Senebier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Senebier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme auteur (sélection)
-Mémoires physico-chimiques sur l'influence de la lumière solaire pour modifier les êtres des trois règnes de la nature, Genève, 1782, 3 vol. 
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comme auteur (sélection)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mémoires physico-chimiques sur l'influence de la lumière solaire pour modifier les êtres des trois règnes de la nature, Genève, 1782, 3 vol. 
 Recherches sur l'influence de la lumière solaire pour métamorphoser l'air fixe en air pur par la végétation sur Google Livres, Genève, Barthelemi Chirol, 1783
 Considérations sur la méthode suivie par M. l'abbé Spallanzani dans ses expériences sur la digestion, Genève, Barthelemi Chirol, 1783 — Dans la même publication que celle de Spallanzani.
 Recherches analytiques sur la nature de l'air inflammable, 1784.
@@ -597,9 +653,43 @@
 Expériences sur l'action de la lumière solaire dans la végétation, Genève, 1788.
 Essai sur l'art d'observer et de faire des expériences
 Seconde édition, « considérablement changée et augmentée », Genève, Paschoud, 1802 : t. 1 ; t. 2 ; t. 3 sur Gallica
-Météorologie pratique, Genève, 1810
-Comme traducteur
-Senebier a traduit plusieurs ouvrages de Lazzaro Spallanzani.</t>
+Météorologie pratique, Genève, 1810</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Senebier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Senebier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comme traducteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Senebier a traduit plusieurs ouvrages de Lazzaro Spallanzani.</t>
         </is>
       </c>
     </row>
